--- a/data_input_files_scripts/evaluation_for_cse104_mid_q1.xlsx
+++ b/data_input_files_scripts/evaluation_for_cse104_mid_q1.xlsx
@@ -411,7 +411,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="C2">
         <v>2000</v>
@@ -428,7 +428,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20001</v>
+        <v>200001</v>
       </c>
       <c r="C3">
         <v>2001</v>
@@ -445,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20002</v>
+        <v>200002</v>
       </c>
       <c r="C4">
         <v>2002</v>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20003</v>
+        <v>200003</v>
       </c>
       <c r="C5">
         <v>2003</v>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20004</v>
+        <v>200004</v>
       </c>
       <c r="C6">
         <v>2004</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20005</v>
+        <v>200005</v>
       </c>
       <c r="C7">
         <v>2005</v>
@@ -513,7 +513,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20006</v>
+        <v>200006</v>
       </c>
       <c r="C8">
         <v>2006</v>
@@ -530,7 +530,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20007</v>
+        <v>200007</v>
       </c>
       <c r="C9">
         <v>2007</v>
@@ -547,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20008</v>
+        <v>200008</v>
       </c>
       <c r="C10">
         <v>2008</v>
@@ -564,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20009</v>
+        <v>200009</v>
       </c>
       <c r="C11">
         <v>2009</v>
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20010</v>
+        <v>200010</v>
       </c>
       <c r="C12">
         <v>2010</v>
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20011</v>
+        <v>200011</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20012</v>
+        <v>200012</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20013</v>
+        <v>200013</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -649,7 +649,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20014</v>
+        <v>200014</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -666,7 +666,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20015</v>
+        <v>200015</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -683,7 +683,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20016</v>
+        <v>200016</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20017</v>
+        <v>200017</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -717,7 +717,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20018</v>
+        <v>200018</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -734,7 +734,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20019</v>
+        <v>200019</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -751,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20020</v>
+        <v>200020</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -768,7 +768,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20021</v>
+        <v>200021</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -785,7 +785,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20022</v>
+        <v>200022</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -802,7 +802,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20023</v>
+        <v>200023</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -819,7 +819,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>20024</v>
+        <v>200024</v>
       </c>
       <c r="C26">
         <v>2024</v>
@@ -836,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>20025</v>
+        <v>200025</v>
       </c>
       <c r="C27">
         <v>2025</v>
@@ -853,7 +853,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>20026</v>
+        <v>200026</v>
       </c>
       <c r="C28">
         <v>2026</v>
@@ -870,7 +870,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>20027</v>
+        <v>200027</v>
       </c>
       <c r="C29">
         <v>2027</v>
@@ -887,7 +887,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>20028</v>
+        <v>200028</v>
       </c>
       <c r="C30">
         <v>2028</v>
@@ -904,7 +904,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>20029</v>
+        <v>200029</v>
       </c>
       <c r="C31">
         <v>2029</v>
@@ -921,7 +921,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>20030</v>
+        <v>200030</v>
       </c>
       <c r="C32">
         <v>2030</v>
@@ -938,7 +938,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>20031</v>
+        <v>200031</v>
       </c>
       <c r="C33">
         <v>2031</v>
@@ -955,7 +955,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20032</v>
+        <v>200032</v>
       </c>
       <c r="C34">
         <v>2032</v>
@@ -972,7 +972,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>20033</v>
+        <v>200033</v>
       </c>
       <c r="C35">
         <v>2033</v>
@@ -989,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>20034</v>
+        <v>200034</v>
       </c>
       <c r="C36">
         <v>2034</v>
@@ -1006,7 +1006,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>20035</v>
+        <v>200035</v>
       </c>
       <c r="C37">
         <v>2035</v>
@@ -1023,7 +1023,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20036</v>
+        <v>200036</v>
       </c>
       <c r="C38">
         <v>2036</v>
@@ -1040,7 +1040,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>20037</v>
+        <v>200037</v>
       </c>
       <c r="C39">
         <v>2037</v>
@@ -1057,7 +1057,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>20038</v>
+        <v>200038</v>
       </c>
       <c r="C40">
         <v>2038</v>
@@ -1074,7 +1074,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>20039</v>
+        <v>200039</v>
       </c>
       <c r="C41">
         <v>2039</v>
@@ -1091,7 +1091,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>20040</v>
+        <v>200040</v>
       </c>
       <c r="C42">
         <v>2040</v>
@@ -1108,7 +1108,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>20041</v>
+        <v>200041</v>
       </c>
       <c r="C43">
         <v>2041</v>
@@ -1125,7 +1125,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>20042</v>
+        <v>200042</v>
       </c>
       <c r="C44">
         <v>2042</v>
@@ -1142,7 +1142,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>20043</v>
+        <v>200043</v>
       </c>
       <c r="C45">
         <v>2043</v>
@@ -1159,7 +1159,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>20044</v>
+        <v>200044</v>
       </c>
       <c r="C46">
         <v>2044</v>
@@ -1176,7 +1176,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>20045</v>
+        <v>200045</v>
       </c>
       <c r="C47">
         <v>2045</v>
@@ -1193,7 +1193,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>20046</v>
+        <v>200046</v>
       </c>
       <c r="C48">
         <v>2046</v>
@@ -1210,7 +1210,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>20047</v>
+        <v>200047</v>
       </c>
       <c r="C49">
         <v>2047</v>
@@ -1227,7 +1227,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>20048</v>
+        <v>200048</v>
       </c>
       <c r="C50">
         <v>2048</v>
@@ -1244,7 +1244,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>20049</v>
+        <v>200049</v>
       </c>
       <c r="C51">
         <v>2049</v>
@@ -1261,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>20050</v>
+        <v>200050</v>
       </c>
       <c r="C52">
         <v>2050</v>
@@ -1278,7 +1278,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>20051</v>
+        <v>200051</v>
       </c>
       <c r="C53">
         <v>2051</v>
@@ -1295,7 +1295,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>20052</v>
+        <v>200052</v>
       </c>
       <c r="C54">
         <v>2052</v>
@@ -1312,7 +1312,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>20053</v>
+        <v>200053</v>
       </c>
       <c r="C55">
         <v>2053</v>
@@ -1329,7 +1329,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>20054</v>
+        <v>200054</v>
       </c>
       <c r="C56">
         <v>2054</v>
@@ -1346,7 +1346,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>20055</v>
+        <v>200055</v>
       </c>
       <c r="C57">
         <v>2055</v>
@@ -1363,7 +1363,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>20056</v>
+        <v>200056</v>
       </c>
       <c r="C58">
         <v>2056</v>
@@ -1380,7 +1380,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>20057</v>
+        <v>200057</v>
       </c>
       <c r="C59">
         <v>2057</v>
@@ -1397,7 +1397,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>20058</v>
+        <v>200058</v>
       </c>
       <c r="C60">
         <v>2058</v>
@@ -1414,7 +1414,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>20059</v>
+        <v>200059</v>
       </c>
       <c r="C61">
         <v>2059</v>
@@ -1431,7 +1431,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>20060</v>
+        <v>200060</v>
       </c>
       <c r="C62">
         <v>2060</v>
@@ -1448,7 +1448,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>20061</v>
+        <v>200061</v>
       </c>
       <c r="C63">
         <v>2061</v>
@@ -1465,7 +1465,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>20062</v>
+        <v>200062</v>
       </c>
       <c r="C64">
         <v>2062</v>
@@ -1482,7 +1482,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>20063</v>
+        <v>200063</v>
       </c>
       <c r="C65">
         <v>2063</v>
@@ -1499,7 +1499,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>20064</v>
+        <v>200064</v>
       </c>
       <c r="C66">
         <v>2064</v>
@@ -1516,7 +1516,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>20065</v>
+        <v>200065</v>
       </c>
       <c r="C67">
         <v>2065</v>
@@ -1533,7 +1533,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>20066</v>
+        <v>200066</v>
       </c>
       <c r="C68">
         <v>2066</v>
@@ -1550,7 +1550,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>20067</v>
+        <v>200067</v>
       </c>
       <c r="C69">
         <v>2067</v>
@@ -1567,7 +1567,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>20068</v>
+        <v>200068</v>
       </c>
       <c r="C70">
         <v>2068</v>
@@ -1584,7 +1584,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>20069</v>
+        <v>200069</v>
       </c>
       <c r="C71">
         <v>2069</v>
@@ -1601,7 +1601,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>20070</v>
+        <v>200070</v>
       </c>
       <c r="C72">
         <v>2070</v>
@@ -1618,7 +1618,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>20071</v>
+        <v>200071</v>
       </c>
       <c r="C73">
         <v>2071</v>
@@ -1635,7 +1635,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>20072</v>
+        <v>200072</v>
       </c>
       <c r="C74">
         <v>2072</v>
@@ -1652,7 +1652,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>20073</v>
+        <v>200073</v>
       </c>
       <c r="C75">
         <v>2073</v>
@@ -1669,7 +1669,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>20074</v>
+        <v>200074</v>
       </c>
       <c r="C76">
         <v>2074</v>
@@ -1686,7 +1686,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>20075</v>
+        <v>200075</v>
       </c>
       <c r="C77">
         <v>2075</v>
@@ -1703,7 +1703,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>20076</v>
+        <v>200076</v>
       </c>
       <c r="C78">
         <v>2076</v>
@@ -1720,7 +1720,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>20077</v>
+        <v>200077</v>
       </c>
       <c r="C79">
         <v>2077</v>
@@ -1737,7 +1737,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>20078</v>
+        <v>200078</v>
       </c>
       <c r="C80">
         <v>2078</v>
@@ -1754,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>20079</v>
+        <v>200079</v>
       </c>
       <c r="C81">
         <v>2079</v>
@@ -1771,7 +1771,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>20080</v>
+        <v>200080</v>
       </c>
       <c r="C82">
         <v>2080</v>
@@ -1788,7 +1788,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>20081</v>
+        <v>200081</v>
       </c>
       <c r="C83">
         <v>2081</v>
@@ -1805,7 +1805,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>20082</v>
+        <v>200082</v>
       </c>
       <c r="C84">
         <v>2082</v>
@@ -1822,7 +1822,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>20083</v>
+        <v>200083</v>
       </c>
       <c r="C85">
         <v>2083</v>
@@ -1839,7 +1839,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>20084</v>
+        <v>200084</v>
       </c>
       <c r="C86">
         <v>2084</v>
@@ -1856,7 +1856,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>20085</v>
+        <v>200085</v>
       </c>
       <c r="C87">
         <v>2085</v>
@@ -1873,7 +1873,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>20086</v>
+        <v>200086</v>
       </c>
       <c r="C88">
         <v>2086</v>
@@ -1890,7 +1890,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>20087</v>
+        <v>200087</v>
       </c>
       <c r="C89">
         <v>2087</v>
